--- a/src/models/baselines/XGBoost/results/synthetic/topology/tv2/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/synthetic/topology/tv2/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6007422711968166</v>
+        <v>0.7488521579430669</v>
       </c>
     </row>
     <row r="3">
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4797979797979798</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4797979797979798</v>
+        <v>0.6919191919191919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6494107744107743</v>
+        <v>0.8346724823997551</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.494949494949495</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="C4" t="n">
-        <v>0.494949494949495</v>
+        <v>0.6767676767676768</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6707223752678299</v>
+        <v>0.8266375880012243</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="D5" t="n">
-        <v>0.709519436792164</v>
+        <v>0.8407560453014998</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.494949494949495</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494949494949495</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6805555555555557</v>
+        <v>0.8063973063973066</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4191919191919192</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6242347719620448</v>
+        <v>0.7457529843893479</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6313131313131313</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6313131313131313</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6727502295684115</v>
+        <v>0.7905570860116314</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527012549739822</v>
+        <v>0.7955310682583411</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6411845730027548</v>
+        <v>0.827670645852464</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.404040404040404</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="C11" t="n">
-        <v>0.404040404040404</v>
+        <v>0.5959595959595959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.591368227731864</v>
+        <v>0.7749464340373432</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4686868686868687</v>
+        <v>0.6323232323232324</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4686868686868687</v>
+        <v>0.6323232323232324</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6493189470462197</v>
+        <v>0.799177379859198</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04330233377985934</v>
+        <v>0.0470658417643274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04330233377985934</v>
+        <v>0.0470658417643274</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03656313875815718</v>
+        <v>0.03442912540223758</v>
       </c>
     </row>
   </sheetData>
